--- a/WH-001Sales-Update.xlsx
+++ b/WH-001Sales-Update.xlsx
@@ -22,7 +22,7 @@
     <t>จำนวนสินค้า</t>
   </si>
   <si>
-    <t>เลขที่เสนอราคา</t>
+    <t>เลขที่ขายสินค้า</t>
   </si>
   <si>
     <t>รหัส</t>
@@ -79,34 +79,34 @@
     <t>ราคาขาย</t>
   </si>
   <si>
-    <t>2024-08-26 11:43:01.044</t>
-  </si>
-  <si>
-    <t>2024-08-26 11:43:20.901</t>
+    <t>2024-10-08 13:20:33.290</t>
+  </si>
+  <si>
+    <t>2024-10-08 13:27:35.929</t>
   </si>
   <si>
     <t>WH-001</t>
   </si>
   <si>
-    <t>ลซ3-ช</t>
-  </si>
-  <si>
-    <t>ปร1/2-ส</t>
-  </si>
-  <si>
-    <t>เหลี่ยมgi 3*3 x1.5m</t>
-  </si>
-  <si>
-    <t>ปลายเรียบ 1/2 x1.2m (ส้ม)</t>
-  </si>
-  <si>
-    <t>None</t>
+    <t>ลซ4-อป</t>
+  </si>
+  <si>
+    <t>ปร2-อป</t>
+  </si>
+  <si>
+    <t>เหลี่ยมgi 4*4 x1.4m</t>
+  </si>
+  <si>
+    <t>ปลายเรียบ 2"</t>
+  </si>
+  <si>
+    <t>ลูกค้าช่าง</t>
   </si>
   <si>
     <t>ช่างน้อย</t>
   </si>
   <si>
-    <t>สระบัว</t>
+    <t>ลาดตะเคียน</t>
   </si>
 </sst>
 </file>
@@ -543,7 +543,7 @@
         <v>21</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -561,16 +561,16 @@
         <v>28</v>
       </c>
       <c r="I2">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J2">
-        <v>485</v>
+        <v>920</v>
       </c>
       <c r="K2">
-        <v>582</v>
+        <v>1104</v>
       </c>
       <c r="L2">
-        <v>580</v>
+        <v>1100</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="R2" t="s">
         <v>29</v>
@@ -597,10 +597,10 @@
         <v>123456789</v>
       </c>
       <c r="U2">
-        <v>9894</v>
+        <v>7700</v>
       </c>
       <c r="V2">
-        <v>494.7</v>
+        <v>641.6666666666666</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -611,7 +611,7 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
@@ -629,16 +629,16 @@
         <v>28</v>
       </c>
       <c r="I3">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>110</v>
+        <v>370</v>
       </c>
       <c r="K3">
-        <v>132</v>
+        <v>400</v>
       </c>
       <c r="L3">
-        <v>130</v>
+        <v>395</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -653,13 +653,13 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>2640</v>
+        <v>395</v>
       </c>
       <c r="V3">
-        <v>132</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/WH-001Sales-Update.xlsx
+++ b/WH-001Sales-Update.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Timestamp</t>
   </si>
@@ -82,22 +82,13 @@
     <t>2024-10-08 13:20:33.290</t>
   </si>
   <si>
-    <t>2024-10-08 13:27:35.929</t>
-  </si>
-  <si>
     <t>WH-001</t>
   </si>
   <si>
     <t>ลซ4-อป</t>
   </si>
   <si>
-    <t>ปร2-อป</t>
-  </si>
-  <si>
     <t>เหลี่ยมgi 4*4 x1.4m</t>
-  </si>
-  <si>
-    <t>ปลายเรียบ 2"</t>
   </si>
   <si>
     <t>ลูกค้าช่าง</t>
@@ -464,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,22 +534,22 @@
         <v>21</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I2">
         <v>7</v>
@@ -588,10 +579,10 @@
         <v>7</v>
       </c>
       <c r="R2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T2">
         <v>123456789</v>
@@ -601,65 +592,6 @@
       </c>
       <c r="V2">
         <v>641.6666666666666</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>370</v>
-      </c>
-      <c r="K3">
-        <v>400</v>
-      </c>
-      <c r="L3">
-        <v>395</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>395</v>
-      </c>
-      <c r="V3">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
